--- a/R/analysis/data/Pt_20_Control.xlsx
+++ b/R/analysis/data/Pt_20_Control.xlsx
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0.71</v>
       </c>
       <c r="L3" t="n">
-        <v>-6.75</v>
+        <v>6.75</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="e">
@@ -629,14 +629,14 @@
         <v>1.65</v>
       </c>
       <c r="K4" t="n">
-        <v>6.89</v>
+        <v>2.65</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.88</v>
+        <v>4.88</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>2.08</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>1.3</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.62</v>
+        <v>5.62</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -801,14 +801,14 @@
         <v>0.59</v>
       </c>
       <c r="K7" t="n">
-        <v>6.38</v>
+        <v>1.57</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.11</v>
+        <v>4.51</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>-3.67</v>
+        <v>3.67</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0.96</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>1.6</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.38</v>
+        <v>5.38</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -973,14 +973,14 @@
         <v>0.54</v>
       </c>
       <c r="K10" t="n">
-        <v>7.16</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.31</v>
+        <v>5.06</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>1.69</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.38</v>
+        <v>4.38</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="e">
@@ -1141,14 +1141,14 @@
         <v>0.45</v>
       </c>
       <c r="K13" t="n">
-        <v>7.24</v>
+        <v>1.05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.74</v>
+        <v>5.12</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>2.83</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1.51</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.38</v>
+        <v>4.38</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="e">
@@ -1313,14 +1313,14 @@
         <v>0.55</v>
       </c>
       <c r="K16" t="n">
-        <v>7.34</v>
+        <v>1.15</v>
       </c>
       <c r="L16" t="n">
-        <v>0.81</v>
+        <v>5.19</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>1.13</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.57</v>
+        <v>5.57</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1483,16 +1483,16 @@
         <v>1.48</v>
       </c>
       <c r="K19" t="n">
-        <v>8.08</v>
+        <v>0.21</v>
       </c>
       <c r="L19" t="n">
-        <v>0.15</v>
+        <v>5.72</v>
       </c>
       <c r="M19" t="n">
-        <v>4.95</v>
+        <v>2.12</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>1.53</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.33</v>
+        <v>5.33</v>
       </c>
       <c r="M21" t="n">
         <v>0.89</v>
@@ -1659,16 +1659,16 @@
         <v>2.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.21</v>
+        <v>0.33</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.23</v>
+        <v>5.1</v>
       </c>
       <c r="M22" t="n">
-        <v>4.53</v>
+        <v>1.7</v>
       </c>
       <c r="N22" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>1.29</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.91</v>
@@ -1835,16 +1835,16 @@
         <v>0.52</v>
       </c>
       <c r="K25" t="n">
-        <v>5.91</v>
+        <v>0.96</v>
       </c>
       <c r="L25" t="n">
-        <v>0.68</v>
+        <v>4.18</v>
       </c>
       <c r="M25" t="n">
-        <v>5.3</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>1.73</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.91</v>
@@ -2009,10 +2009,10 @@
         <v>0.47</v>
       </c>
       <c r="K28" t="n">
-        <v>6.99</v>
+        <v>0.79</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.56</v>
+        <v>4.94</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
